--- a/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportQuality.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportQuality.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD0FCD-E3D6-4EF0-8A07-A9906EE9585D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -219,10 +229,6 @@
     <t>是否經會計師查核</t>
   </si>
   <si>
-    <t>0:否,1:是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>近兩年是否曾換會計師</t>
   </si>
   <si>
@@ -267,13 +273,18 @@
   </si>
   <si>
     <t>IsCheck</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:否
+1:是</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -504,8 +515,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -596,6 +607,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -631,6 +659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,11 +851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -833,7 +878,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -858,7 +903,7 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -971,13 +1016,13 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <f t="shared" ref="A11:A21" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>36</v>
@@ -990,7 +1035,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -999,7 +1044,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>37</v>
@@ -1013,13 +1058,13 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>38</v>
@@ -1032,19 +1077,19 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>34</v>
@@ -1054,7 +1099,7 @@
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1063,10 +1108,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>34</v>
@@ -1077,16 +1122,16 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>34</v>
@@ -1096,7 +1141,7 @@
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1105,10 +1150,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>34</v>
@@ -1626,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
